--- a/results/I3_N5_M2_T45_C200_DepCentral_s1_res_fix.xlsx
+++ b/results/I3_N5_M2_T45_C200_DepCentral_s1_res_fix.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>392.2485864913081</v>
+        <v>23.95968639016486</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01600003242492676</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29.58858649131692</v>
+        <v>23.95968639016486</v>
       </c>
     </row>
     <row r="7">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>258.9899999999913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>103.67</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -656,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -747,7 +747,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -758,7 +758,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -860,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>16.60181147454999</v>
+        <v>31.60181147454999</v>
       </c>
     </row>
     <row r="5">
@@ -868,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -884,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>38.76616769126618</v>
+        <v>36.23964284834953</v>
       </c>
     </row>
     <row r="8">
@@ -892,7 +892,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>38.49249770206973</v>
+        <v>35.39012244383432</v>
       </c>
     </row>
     <row r="9">
@@ -900,7 +900,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>43.4864325143455</v>
+        <v>40.95990767142885</v>
       </c>
     </row>
   </sheetData>
@@ -1043,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>126.97</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
@@ -1054,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>127.65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>136.855</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
@@ -1076,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>127.255</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
@@ -1087,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>123.4800000000003</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
@@ -1098,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>125.4949999999988</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13">
@@ -1109,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>121.6349999999988</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14">
@@ -1120,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>109.3699999999988</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15">
@@ -1131,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>122.0549999999988</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16">
@@ -1142,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>123.5549999999988</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17">
@@ -1153,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>81.05499999999913</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -1164,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>83.09999999999999</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19">
@@ -1175,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20">
@@ -1186,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>76.23999999999913</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21">
@@ -1197,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>77.71999999999913</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22">
@@ -1208,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>202.86</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23">
@@ -1219,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>203.34</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24">
@@ -1230,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>217.055</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25">
@@ -1241,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>207.51</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26">
@@ -1252,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>199.0450000000008</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27">
@@ -1263,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>227.2199999999992</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28">
@@ -1274,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>217.7549999999992</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29">
@@ -1285,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>207.6349999999992</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30">
@@ -1296,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>219</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31">
@@ -1307,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>227.1199999999992</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32">
@@ -1318,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>202.86</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33">
@@ -1329,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>203.34</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34">
@@ -1340,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>217.055</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35">
@@ -1351,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>207.51</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36">
@@ -1362,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>199.0450000000008</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37">
@@ -1373,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>227.2199999999992</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38">
@@ -1384,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>217.7549999999992</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39">
@@ -1395,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>207.6349999999992</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40">
@@ -1406,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>219</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41">
@@ -1417,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>227.1199999999992</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -1464,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.860000000000014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1475,7 +1475,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>3.339999999999833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1486,7 +1486,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>17.05499999999927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1497,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>7.509999999999707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1519,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>27.2199999999992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1530,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>17.7549999999992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1541,7 +1541,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>7.6349999999992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1552,7 +1552,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1563,7 +1563,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>27.1199999999992</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1665,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2.605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1676,7 +1676,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1687,7 +1687,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1698,7 +1698,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>5.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1709,7 +1709,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1720,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>4.015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1731,7 +1731,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1742,7 +1742,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1753,7 +1753,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>6.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1764,7 +1764,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1888,7 +1888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1913,105 +1913,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
